--- a/Note/New Microsoft Excel Worksheet.xlsx
+++ b/Note/New Microsoft Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>and</t>
   </si>
@@ -175,24 +175,160 @@
   </si>
   <si>
     <t>cy. clearLocalStorage ()</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chờ một khoảng nhất định (ms) </t>
+  </si>
+  <si>
+    <t>Quy định kích thước và vị trí của màn hình</t>
+  </si>
+  <si>
+    <t>Xuất ra các thông báo</t>
+  </si>
+  <si>
+    <t>Được sử dụng để tải lại page</t>
+  </si>
+  <si>
+    <t>cy.reload()</t>
+  </si>
+  <si>
+    <t>cy.log('Cypress logging ')</t>
+  </si>
+  <si>
+    <t>cy.viewport(100, 500)</t>
+  </si>
+  <si>
+    <t>cy.wait(1000)</t>
+  </si>
+  <si>
+    <t>Dùng để tạo ra một xác nhận</t>
+  </si>
+  <si>
+    <t>cy.get('#txt').should('be.visible')</t>
+  </si>
+  <si>
+    <t>Nó lấy phần tử cha mẹ từ phần tử truyền vào</t>
+  </si>
+  <si>
+    <t>cy.get('.h').parent()</t>
+  </si>
+  <si>
+    <t>Lấy được phần tử kế tiếp (anh chị em)</t>
+  </si>
+  <si>
+    <t>cy.get('l a:first').next()</t>
+  </si>
+  <si>
+    <t>Khởi chạy một URL</t>
+  </si>
+  <si>
+    <t>cy.visit('https://www.google.com')</t>
+  </si>
+  <si>
+    <t>Lấy tiêu đề của trang hiện tại</t>
+  </si>
+  <si>
+    <t>cy.title()</t>
+  </si>
+  <si>
+    <t>Dùng để đi tới hoặc lùi trang URL trong lịch sử duyệt</t>
+  </si>
+  <si>
+    <t>cy.go('back')/ cy.go('forward')</t>
+  </si>
+  <si>
+    <t>Lấy tất cả cookie</t>
+  </si>
+  <si>
+    <t>Nhận cookie của một trình duyệt cụ thể</t>
+  </si>
+  <si>
+    <t>cy.getCookie('abc')</t>
+  </si>
+  <si>
+    <t>cy.getCookies()</t>
+  </si>
+  <si>
+    <t>Nhận được 1 hoặc nhiều phần tử bằng 1 quy định</t>
+  </si>
+  <si>
+    <t>cy.get('tr&gt;td')</t>
+  </si>
+  <si>
+    <t>Lấy được phần từ đầu tiên của nhóm phần tử</t>
+  </si>
+  <si>
+    <t>cy.get('tr&gt;td').first()</t>
+  </si>
+  <si>
+    <t>Tìm các phần tử con theo một quy tắt truyền vào</t>
+  </si>
+  <si>
+    <t>Thực thi các lệnh của hệ thống</t>
+  </si>
+  <si>
+    <t>Kiểm tra số lượng phần tử tìm thấy</t>
+  </si>
+  <si>
+    <t>cy.get('tr&gt;td').eq(2)</t>
+  </si>
+  <si>
+    <t>cy.exec('npm init')</t>
+  </si>
+  <si>
+    <t>cy.get('tr').find('td')</t>
+  </si>
+  <si>
+    <t>Kết thúc một chuỗi lệnh</t>
+  </si>
+  <si>
+    <t>cy.contains('input').end()</t>
+  </si>
+  <si>
+    <t>Lặp qua từng item trong mảng phần tử</t>
+  </si>
+  <si>
+    <t>cy.get('li').each(() =&gt; {...})</t>
+  </si>
+  <si>
+    <t>lấy được window.document trên trang đang hoạt động</t>
+  </si>
+  <si>
+    <t>cy.document()</t>
+  </si>
+  <si>
+    <t>Tạm dừng để debug và các giá trị log</t>
+  </si>
+  <si>
+    <t>cy.get('#txt').debug()</t>
+  </si>
+  <si>
+    <t>Nhấn đúp vào phần tử đc chỉ định</t>
+  </si>
+  <si>
+    <t>cy.get('#txt').dblclick()</t>
+  </si>
+  <si>
+    <t>Lấy phần từ có chứa text đc truyền vào</t>
+  </si>
+  <si>
+    <t>cy.get('#txt').contains('Tutor')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEAEAEA"/>
-      <name val="Var(--bs-font-monospace)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,12 +339,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -217,9 +368,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,237 +649,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D34"/>
+  <dimension ref="B3:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
